--- a/documents/Oled BOM.xlsx
+++ b/documents/Oled BOM.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">910K (805)</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD1306 (1.3”)</t>
+    <t xml:space="preserve">SH1106 (1.3”)</t>
   </si>
   <si>
     <t xml:space="preserve">Rotary Encoder (Half-15mm)</t>
@@ -107,29 +107,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+  <fonts count="6">
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -137,13 +116,29 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -204,11 +199,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -232,10 +227,10 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.28"/>
@@ -488,7 +483,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
